--- a/Tableau_de_synthesecoline.xlsx
+++ b/Tableau_de_synthesecoline.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\portfolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\a_rendre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{518FBF36-BC34-49A1-91AC-FE5A4A0B7A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F286819-2E25-4911-8ACB-899ECDDD4152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$33</definedName>
   </definedNames>
   <calcPr calcId="101716"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -86,9 +86,6 @@
 ▸Développer son projet professionnel</t>
   </si>
   <si>
-    <t>Centre de formation :</t>
-  </si>
-  <si>
     <t>▢ SISR</t>
   </si>
   <si>
@@ -101,12 +98,6 @@
 (intitulé et liste des documents et productions associés)</t>
   </si>
   <si>
-    <t xml:space="preserve">N° candidat : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOM et prénom : </t>
-  </si>
-  <si>
     <t>Période (sous la forme du JJ/MM/AA au JJ/MM/AA)</t>
   </si>
   <si>
@@ -116,9 +107,6 @@
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
   </si>
   <si>
-    <t>Adresse URL du portfolio :</t>
-  </si>
-  <si>
     <t>SESSION 2024</t>
   </si>
   <si>
@@ -167,9 +155,6 @@
     <t>10-22au 08-24</t>
   </si>
   <si>
-    <t xml:space="preserve">création d'un piano interractif </t>
-  </si>
-  <si>
     <t>09-22 au 08-24</t>
   </si>
   <si>
@@ -188,9 +173,6 @@
     <t xml:space="preserve">crétion de script python </t>
   </si>
   <si>
-    <t>création d'une base de données Mysql table employé</t>
-  </si>
-  <si>
     <t xml:space="preserve">site sur ma ville </t>
   </si>
   <si>
@@ -200,12 +182,6 @@
     <t xml:space="preserve">utilisation de cookies pour un site </t>
   </si>
   <si>
-    <t xml:space="preserve">initiation site en MVC </t>
-  </si>
-  <si>
-    <t>initiation langage Kotlin</t>
-  </si>
-  <si>
     <t>X SLAM</t>
   </si>
   <si>
@@ -216,6 +192,24 @@
   </si>
   <si>
     <t>01-24 au 03-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N° candidat : 0 1 9 5 0 9 6 2 4 8 </t>
+  </si>
+  <si>
+    <t>NOM et prénom : MAHAUT Coline</t>
+  </si>
+  <si>
+    <t>Adresse URL du portfolio : https://basknets.github.io/portfolio/  , short url : https://shorturl.at/hqDH2</t>
+  </si>
+  <si>
+    <t>Centre de formation : H3 hitema</t>
+  </si>
+  <si>
+    <t>création d'une base de données Mysql</t>
+  </si>
+  <si>
+    <t>création d'un piano interractif en html et javascript</t>
   </si>
 </sst>
 </file>
@@ -288,7 +282,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,14 +295,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="29">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -413,51 +401,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
     <border diagonalDown="1">
       <left style="medium">
         <color theme="2" tint="-0.749992370372631"/>
@@ -699,7 +642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -722,20 +665,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -746,104 +683,95 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1153,10 +1081,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ82"/>
+  <dimension ref="A1:AQ79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1169,84 +1097,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="20"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="28"/>
+      <c r="A3" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="37"/>
+      <c r="H3" s="43"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>54</v>
+      <c r="H4" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
+      <c r="A5" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>0</v>
@@ -1268,21 +1196,21 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="47" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="21" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="8" t="s">
@@ -1325,16 +1253,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
+      <c r="A8" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1373,17 +1301,17 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="42">
+        <v>54</v>
+      </c>
+      <c r="B9" s="16">
         <v>44835</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1422,17 +1350,17 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="42">
+        <v>22</v>
+      </c>
+      <c r="B10" s="16">
         <v>45139</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="16"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="14"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1471,17 +1399,17 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="42">
+        <v>23</v>
+      </c>
+      <c r="B11" s="16">
         <v>45323</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="43"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="17"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1520,17 +1448,17 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="42">
+        <v>24</v>
+      </c>
+      <c r="B12" s="16">
         <v>45323</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="43"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="17"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1569,17 +1497,17 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="42">
+        <v>55</v>
+      </c>
+      <c r="B13" s="16">
         <v>45170</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1618,17 +1546,17 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="42">
+        <v>45</v>
+      </c>
+      <c r="B14" s="16">
         <v>44986</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="16"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="14"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1667,17 +1595,17 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="42">
+        <v>42</v>
+      </c>
+      <c r="B15" s="16">
         <v>45047</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="16"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="14"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1716,17 +1644,17 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="42">
+        <v>43</v>
+      </c>
+      <c r="B16" s="16">
         <v>44986</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="43"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="17"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1765,17 +1693,17 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="42">
+        <v>44</v>
+      </c>
+      <c r="B17" s="16">
         <v>45108</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="43"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="17"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1812,19 +1740,17 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="42">
-        <v>45323</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="48"/>
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1863,17 +1789,17 @@
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="42">
-        <v>45323</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="43"/>
+        <v>27</v>
+      </c>
+      <c r="B19" s="16">
+        <v>44805</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1910,17 +1836,19 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="14"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1958,18 +1886,18 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="42">
-        <v>44805</v>
-      </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
+      <c r="A21" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="14"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -2008,17 +1936,17 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="16"/>
+        <v>37</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2056,18 +1984,18 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="s">
-        <v>39</v>
+      <c r="A23" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="16"/>
+        <v>37</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="14"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2105,18 +2033,18 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
+        <v>37</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2155,17 +2083,17 @@
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="16"/>
+        <v>39</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2203,18 +2131,18 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="46" t="s">
-        <v>36</v>
+      <c r="A26" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2251,19 +2179,17 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2302,17 +2228,17 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="B28" s="16">
+        <v>45139</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2349,17 +2275,19 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="36"/>
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="14"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2396,19 +2324,19 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="42">
-        <v>45139</v>
-      </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
+        <v>33</v>
+      </c>
+      <c r="B30" s="16">
+        <v>45352</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2445,19 +2373,19 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="16"/>
+        <v>40</v>
+      </c>
+      <c r="B31" s="16">
+        <v>45108</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="14"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2494,19 +2422,19 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="42">
-        <v>45352</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="16"/>
+        <v>48</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="14"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2543,19 +2471,14 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="42">
-        <v>45108</v>
-      </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="16"/>
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2592,148 +2515,13 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="16"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
-      <c r="W34"/>
-      <c r="X34"/>
-      <c r="Y34"/>
-      <c r="Z34"/>
-      <c r="AA34"/>
-      <c r="AB34"/>
-      <c r="AC34"/>
-      <c r="AD34"/>
-      <c r="AE34"/>
-      <c r="AF34"/>
-      <c r="AG34"/>
-      <c r="AH34"/>
-      <c r="AI34"/>
-      <c r="AJ34"/>
-      <c r="AK34"/>
-      <c r="AL34"/>
-      <c r="AM34"/>
-      <c r="AN34"/>
-      <c r="AO34"/>
-      <c r="AP34"/>
-      <c r="AQ34"/>
-    </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="18"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
-      <c r="Z35"/>
-      <c r="AA35"/>
-      <c r="AB35"/>
-      <c r="AC35"/>
-      <c r="AD35"/>
-      <c r="AE35"/>
-      <c r="AF35"/>
-      <c r="AG35"/>
-      <c r="AH35"/>
-      <c r="AI35"/>
-      <c r="AJ35"/>
-      <c r="AK35"/>
-      <c r="AL35"/>
-      <c r="AM35"/>
-      <c r="AN35"/>
-      <c r="AO35"/>
-      <c r="AP35"/>
-      <c r="AQ35"/>
-    </row>
-    <row r="36" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
-      <c r="W36"/>
-      <c r="X36"/>
-      <c r="Y36"/>
-      <c r="Z36"/>
-      <c r="AA36"/>
-      <c r="AB36"/>
-      <c r="AC36"/>
-      <c r="AD36"/>
-      <c r="AE36"/>
-      <c r="AF36"/>
-      <c r="AG36"/>
-      <c r="AH36"/>
-      <c r="AI36"/>
-      <c r="AJ36"/>
-      <c r="AK36"/>
-      <c r="AL36"/>
-      <c r="AM36"/>
-      <c r="AN36"/>
-      <c r="AO36"/>
-      <c r="AP36"/>
-      <c r="AQ36"/>
-    </row>
+    <row r="34" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:43" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:43" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-    </row>
+    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2775,28 +2563,25 @@
     <row r="77" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A5:H5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="34" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.82677165354330717" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>